--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
@@ -86,7 +86,7 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>userqa10</t>
+    <t>userrobot3</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -143,9 +143,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,6 +171,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -179,6 +217,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -187,23 +232,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +247,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -224,76 +293,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,16 +307,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,55 +343,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,127 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,11 +574,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,30 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,30 +654,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -671,152 +662,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>userrobot3</t>
@@ -143,9 +146,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -171,16 +174,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,98 +242,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,11 +282,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,13 +346,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,163 +478,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,16 +578,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,8 +595,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,30 +625,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -648,6 +636,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,157 +669,157 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,7 +1164,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6"/>
@@ -1263,8 +1266,8 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>13</v>
@@ -1273,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>15</v>
@@ -1357,16 +1360,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1374,50 +1377,50 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
@@ -59,7 +59,7 @@
     <t>1037655531</t>
   </si>
   <si>
-    <t>ospciclo4finde</t>
+    <t>userunico01</t>
   </si>
   <si>
     <t>1234</t>
@@ -89,7 +89,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>userrobot3</t>
+    <t>invictus10</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -175,22 +175,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,9 +219,56 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,33 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,7 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,27 +313,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,181 +346,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,35 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,6 +602,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -636,6 +627,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +657,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -665,19 +674,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,131 +695,131 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1164,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaProductosAsociados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -56,37 +56,40 @@
     <t>1</t>
   </si>
   <si>
+    <t>87576487</t>
+  </si>
+  <si>
+    <t>autouser20</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Acierto</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1037655531</t>
-  </si>
-  <si>
-    <t>userunico01</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>NO ERROR</t>
-  </si>
-  <si>
-    <t>bolp</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>invictus10</t>
@@ -145,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -175,6 +178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -182,23 +192,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,68 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -280,6 +222,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -290,6 +247,74 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,28 +327,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -346,6 +349,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,49 +421,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,121 +517,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,15 +580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,6 +591,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,17 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,8 +642,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,171 +663,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1164,7 +1167,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6"/>
@@ -1270,13 +1273,13 @@
         <v>23</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>15</v>
@@ -1360,16 +1363,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1377,50 +1380,50 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
